--- a/excel.xlsx
+++ b/excel.xlsx
@@ -16,6 +16,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Bom dia ! </t>
+  </si>
+  <si>
+    <t>eu sou o Joel</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +56,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +196,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +231,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +413,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7">
+        <v>51</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUM(A3:B3)</f>
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel.xlsx
+++ b/excel.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Bom dia ! </t>
   </si>
   <si>
     <t>eu sou o Joel</t>
+  </si>
+  <si>
+    <t>prova git</t>
   </si>
 </sst>
 </file>
@@ -48,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -106,12 +109,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -130,9 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,39 +432,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>45</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>51</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <f>SUM(A3:B3)</f>
         <v>96</v>
       </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Bom dia ! </t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>prova git</t>
+  </si>
+  <si>
+    <t>alterando novamente</t>
   </si>
 </sst>
 </file>
@@ -119,16 +122,14 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +153,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,17 +476,25 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
     </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Bom dia ! </t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>prova git</t>
+  </si>
+  <si>
+    <t>eu sou a bruna</t>
+  </si>
+  <si>
+    <t>fatec</t>
   </si>
 </sst>
 </file>
@@ -133,6 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,7 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,27 +438,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -467,11 +473,21 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
